--- a/final_data_pipeline/output/325120longform_elec_options.xlsx
+++ b/final_data_pipeline/output/325120longform_elec_options.xlsx
@@ -895,7 +895,7 @@
         <v>64</v>
       </c>
       <c r="K7">
-        <v>10</v>
+        <v>-0.763888888888889</v>
       </c>
       <c r="L7">
         <v>8000</v>
@@ -1130,7 +1130,7 @@
         <v>64</v>
       </c>
       <c r="K12">
-        <v>10</v>
+        <v>12.41429539295394</v>
       </c>
       <c r="L12">
         <v>8000</v>
@@ -1177,7 +1177,7 @@
         <v>64</v>
       </c>
       <c r="K13">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="L13">
         <v>8000</v>
@@ -1271,7 +1271,7 @@
         <v>64</v>
       </c>
       <c r="K15">
-        <v>10</v>
+        <v>21.79166666666666</v>
       </c>
       <c r="L15">
         <v>8000</v>
@@ -1318,7 +1318,7 @@
         <v>64</v>
       </c>
       <c r="K16">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="L16">
         <v>8000</v>
@@ -1647,7 +1647,7 @@
         <v>64</v>
       </c>
       <c r="K23">
-        <v>10</v>
+        <v>20.68981481481483</v>
       </c>
       <c r="L23">
         <v>8000</v>
@@ -1788,7 +1788,7 @@
         <v>64</v>
       </c>
       <c r="K26">
-        <v>10</v>
+        <v>-0.763888888888889</v>
       </c>
       <c r="L26">
         <v>8000</v>
@@ -1835,7 +1835,7 @@
         <v>64</v>
       </c>
       <c r="K27">
-        <v>10</v>
+        <v>12.67039049919483</v>
       </c>
       <c r="L27">
         <v>8000</v>
@@ -1882,7 +1882,7 @@
         <v>64</v>
       </c>
       <c r="K28">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="L28">
         <v>8000</v>
